--- a/output/【河洛話注音】詩經．小雅．鹿鳴.xlsx
+++ b/output/【河洛話注音】詩經．小雅．鹿鳴.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/piau-im/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E8560A-2FF2-3F4C-8FAE-18EEDFCFF4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE9D04BB-952B-444A-875B-63F1EDBBDD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-84600" yWindow="2840" windowWidth="28540" windowHeight="17320" activeTab="9" xr2:uid="{08B07058-6E9C-7241-A739-1C307E98A868}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="16830" windowHeight="11895" firstSheet="3" activeTab="5" xr2:uid="{08B07058-6E9C-7241-A739-1C307E98A868}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="389">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,75 +283,24 @@
     <t>ing</t>
   </si>
   <si>
-    <t>qiu1</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
     <t>iu</t>
   </si>
   <si>
-    <t>su7</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>sit8</t>
-  </si>
-  <si>
     <t>it</t>
   </si>
   <si>
-    <t>qia2</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>tsi1</t>
-  </si>
-  <si>
-    <t>ts</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
-    <t>phing5</t>
-  </si>
-  <si>
-    <t>ph</t>
-  </si>
-  <si>
-    <t>gonn2</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
-    <t>onn</t>
-  </si>
-  <si>
-    <t>qiu2</t>
-  </si>
-  <si>
-    <t>qiu7</t>
-  </si>
-  <si>
-    <t>kee1</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
-    <t>ee</t>
-  </si>
-  <si>
     <t>pin1</t>
   </si>
   <si>
@@ -373,12 +322,6 @@
     <t>ik</t>
   </si>
   <si>
-    <t>tshui1</t>
-  </si>
-  <si>
-    <t>tsh</t>
-  </si>
-  <si>
     <t>ui</t>
   </si>
   <si>
@@ -394,30 +337,12 @@
     <t>ong</t>
   </si>
   <si>
-    <t>sin5</t>
-  </si>
-  <si>
     <t>khong1</t>
   </si>
   <si>
     <t>kh</t>
   </si>
   <si>
-    <t>si7</t>
-  </si>
-  <si>
-    <t>tshiang1</t>
-  </si>
-  <si>
-    <t>iang</t>
-  </si>
-  <si>
-    <t>tsiang1</t>
-  </si>
-  <si>
-    <t>tsiang3</t>
-  </si>
-  <si>
     <t>jin5</t>
   </si>
   <si>
@@ -430,30 +355,12 @@
     <t>o</t>
   </si>
   <si>
-    <t>honn2</t>
-  </si>
-  <si>
-    <t>honn3</t>
-  </si>
-  <si>
-    <t>tsiu1</t>
-  </si>
-  <si>
     <t>hing5</t>
   </si>
   <si>
     <t>hing7</t>
   </si>
   <si>
-    <t>hang5</t>
-  </si>
-  <si>
-    <t>ang</t>
-  </si>
-  <si>
-    <t>qo1</t>
-  </si>
-  <si>
     <t>ho1</t>
   </si>
   <si>
@@ -463,18 +370,12 @@
     <t>t</t>
   </si>
   <si>
-    <t>qim1</t>
-  </si>
-  <si>
     <t>im</t>
   </si>
   <si>
     <t>khong2</t>
   </si>
   <si>
-    <t>tsiau1</t>
-  </si>
-  <si>
     <t>iau</t>
   </si>
   <si>
@@ -484,12 +385,6 @@
     <t>hiu1</t>
   </si>
   <si>
-    <t>hoo2</t>
-  </si>
-  <si>
-    <t>hu1</t>
-  </si>
-  <si>
     <t>put4</t>
   </si>
   <si>
@@ -508,79 +403,25 @@
     <t>un</t>
   </si>
   <si>
-    <t>tsu2</t>
-  </si>
-  <si>
-    <t>tsik4</t>
-  </si>
-  <si>
     <t>hau7</t>
   </si>
   <si>
     <t>au</t>
   </si>
   <si>
-    <t>tsi2</t>
-  </si>
-  <si>
-    <t>tsiu2</t>
-  </si>
-  <si>
     <t>sit4</t>
   </si>
   <si>
-    <t>qian1</t>
-  </si>
-  <si>
     <t>ian</t>
   </si>
   <si>
-    <t>qian3</t>
-  </si>
-  <si>
-    <t>qi2</t>
-  </si>
-  <si>
     <t>go5</t>
   </si>
   <si>
-    <t>khim5</t>
-  </si>
-  <si>
     <t>ho5</t>
   </si>
   <si>
-    <t>ho7</t>
-  </si>
-  <si>
-    <t>gaunn7</t>
-  </si>
-  <si>
-    <t>aunn</t>
-  </si>
-  <si>
     <t>gak8</t>
-  </si>
-  <si>
-    <t>ak</t>
-  </si>
-  <si>
-    <t>tshi1</t>
-  </si>
-  <si>
-    <t>tsoo1</t>
-  </si>
-  <si>
-    <t>tshiann2</t>
-  </si>
-  <si>
-    <t>iann</t>
-  </si>
-  <si>
-    <t>tam1</t>
-  </si>
-  <si>
-    <t>am</t>
   </si>
   <si>
     <t>sim1</t>
@@ -1318,7 +1159,7 @@
         <sz val="18"/>
         <color theme="1"/>
         <rFont val="Heiti TC Light"/>
-        <charset val="136"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">《詩經．小雅．鹿鳴》【方音符號注音】
 </t>
@@ -1338,7 +1179,7 @@
         <sz val="18"/>
         <color theme="1"/>
         <rFont val="Heiti TC Light"/>
-        <charset val="136"/>
+        <family val="1"/>
       </rPr>
       <t>圖片</t>
     </r>
@@ -1357,7 +1198,7 @@
         <sz val="18"/>
         <color theme="1"/>
         <rFont val="Heiti TC Light"/>
-        <charset val="136"/>
+        <family val="1"/>
       </rPr>
       <t>詩經．小雅．鹿鳴</t>
     </r>
@@ -1375,6 +1216,102 @@
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øiu1</t>
+  </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>Øi7</t>
+  </si>
+  <si>
+    <t>si2</t>
+  </si>
+  <si>
+    <t>Øia2</t>
+  </si>
+  <si>
+    <t>ci1</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>ping5</t>
+  </si>
+  <si>
+    <t>go2</t>
+  </si>
+  <si>
+    <t>Øiu2</t>
+  </si>
+  <si>
+    <t>ka1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>chui1</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>sing5</t>
+  </si>
+  <si>
+    <t>ciong1</t>
+  </si>
+  <si>
+    <t>iong</t>
+  </si>
+  <si>
+    <t>ki5</t>
+  </si>
+  <si>
+    <t>ciu1</t>
+  </si>
+  <si>
+    <t>hong7</t>
+  </si>
+  <si>
+    <t>Øim1</t>
+  </si>
+  <si>
+    <t>ciau1</t>
+  </si>
+  <si>
+    <t>piu2</t>
+  </si>
+  <si>
+    <t>hiu3</t>
+  </si>
+  <si>
+    <t>ci2</t>
+  </si>
+  <si>
+    <t>cik4</t>
+  </si>
+  <si>
+    <t>ciu2</t>
+  </si>
+  <si>
+    <t>Øian1</t>
+  </si>
+  <si>
+    <t>Øi2</t>
+  </si>
+  <si>
+    <t>kim5</t>
+  </si>
+  <si>
+    <t>gau7</t>
+  </si>
+  <si>
+    <t>tim5</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1344,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Heiti TC Light"/>
-      <charset val="136"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="18"/>
@@ -1482,9 +1419,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1522,7 +1459,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1628,7 +1565,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1770,7 +1707,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1784,19 +1721,19 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="184">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1806,12 +1743,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1821,32 +1758,32 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -1856,22 +1793,22 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -1881,22 +1818,22 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -1906,22 +1843,22 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -1931,22 +1868,22 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -1956,22 +1893,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -1981,22 +1918,22 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -2006,22 +1943,22 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -2031,27 +1968,27 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -2061,22 +1998,22 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -2086,22 +2023,22 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -2111,22 +2048,22 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -2136,22 +2073,22 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -2161,32 +2098,32 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -2196,22 +2133,22 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -2221,32 +2158,32 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -2256,27 +2193,27 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -2286,22 +2223,22 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -2311,22 +2248,22 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -2336,22 +2273,22 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -2361,22 +2298,22 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -2386,22 +2323,22 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -2411,22 +2348,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -2436,37 +2373,37 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -2476,12 +2413,12 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2494,15 +2431,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB17E3EF-C283-4B4F-9536-2DABBF2B4094}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19.296875" customWidth="1"/>
-    <col min="3" max="3" width="85.296875" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="85.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -2542,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2559,19 +2496,19 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="184">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2581,12 +2518,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -2596,32 +2533,32 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2631,22 +2568,22 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -2656,22 +2593,22 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -2681,22 +2618,22 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -2706,22 +2643,22 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2731,22 +2668,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -2756,22 +2693,22 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -2781,22 +2718,22 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -2806,27 +2743,27 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -2836,22 +2773,22 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -2861,22 +2798,22 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -2886,22 +2823,22 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -2911,22 +2848,22 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -2936,32 +2873,32 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -2971,22 +2908,22 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -2996,32 +2933,32 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -3031,27 +2968,27 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -3061,22 +2998,22 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -3086,22 +3023,22 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -3111,22 +3048,22 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -3136,22 +3073,22 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -3161,22 +3098,22 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -3186,22 +3123,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -3211,37 +3148,37 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -3251,12 +3188,12 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3273,19 +3210,19 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="184">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3295,12 +3232,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -3310,32 +3247,32 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -3345,22 +3282,22 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3370,22 +3307,22 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -3395,22 +3332,22 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -3420,22 +3357,22 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -3445,22 +3382,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -3470,22 +3407,22 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -3495,22 +3432,22 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -3520,27 +3457,27 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -3550,22 +3487,22 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -3575,22 +3512,22 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -3600,22 +3537,22 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -3625,22 +3562,22 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -3650,32 +3587,32 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -3685,22 +3622,22 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -3710,32 +3647,32 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -3745,27 +3682,27 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -3775,22 +3712,22 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -3800,22 +3737,22 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -3825,22 +3762,22 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -3850,22 +3787,22 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -3875,22 +3812,22 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -3900,22 +3837,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -3925,37 +3862,37 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -3965,12 +3902,12 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3985,19 +3922,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="191">
+    <row r="1" spans="1:1" ht="182.25">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4007,12 +3944,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -4022,32 +3959,32 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4057,22 +3994,22 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -4082,22 +4019,22 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4107,22 +4044,22 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -4132,22 +4069,22 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -4157,22 +4094,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -4182,22 +4119,22 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -4207,22 +4144,22 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -4232,27 +4169,27 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -4262,22 +4199,22 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -4287,22 +4224,22 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -4312,22 +4249,22 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -4337,22 +4274,22 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -4362,32 +4299,32 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -4397,22 +4334,22 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -4422,32 +4359,32 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -4457,27 +4394,27 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -4487,22 +4424,22 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -4512,22 +4449,22 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -4537,22 +4474,22 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -4562,22 +4499,22 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -4587,22 +4524,22 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -4612,22 +4549,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -4637,37 +4574,37 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -4677,12 +4614,12 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4699,19 +4636,19 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="184">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4721,12 +4658,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -4736,32 +4673,32 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4771,22 +4708,22 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -4796,22 +4733,22 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4821,22 +4758,22 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -4846,22 +4783,22 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -4871,22 +4808,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -4896,22 +4833,22 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -4921,22 +4858,22 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -4946,27 +4883,27 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -4976,22 +4913,22 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -5001,22 +4938,22 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -5026,22 +4963,22 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -5051,22 +4988,22 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -5076,32 +5013,32 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -5111,22 +5048,22 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -5136,32 +5073,32 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -5171,27 +5108,27 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -5201,22 +5138,22 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -5226,22 +5163,22 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -5251,22 +5188,22 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -5276,22 +5213,22 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -5301,22 +5238,22 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -5326,22 +5263,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -5351,37 +5288,37 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -5391,12 +5328,12 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5407,18 +5344,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8B0792-2CFF-054C-926D-CB4964812D34}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5437,11 +5374,8 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5460,72 +5394,63 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="46">
+    <row r="5" spans="1:6" ht="51">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="46">
+    <row r="6" spans="1:6" ht="51">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" t="s">
         <v>75</v>
       </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5544,11 +5469,8 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -5567,27 +5489,24 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -5595,45 +5514,39 @@
       <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5641,19 +5554,16 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>364</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
         <v>74</v>
@@ -5664,27 +5574,24 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -5692,45 +5599,39 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5738,22 +5639,19 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5761,27 +5659,24 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -5789,22 +5684,19 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -5812,42 +5704,36 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>369</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>370</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>74</v>
@@ -5858,47 +5744,41 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>369</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>370</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
         <v>74</v>
@@ -5909,22 +5789,19 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -5932,22 +5809,19 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -5955,27 +5829,24 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>371</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -5983,22 +5854,19 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -6006,73 +5874,64 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>360</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>372</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>363</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>373</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -6080,22 +5939,19 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -6103,45 +5959,39 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -6149,50 +5999,44 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>374</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -6200,22 +6044,19 @@
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>375</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -6223,90 +6064,78 @@
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E45">
         <v>5</v>
       </c>
       <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="46">
+    <row r="47" spans="1:6" ht="51">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>18</v>
       </c>
       <c r="B48" t="s">
+        <v>357</v>
+      </c>
+      <c r="C48" t="s">
+        <v>358</v>
+      </c>
+      <c r="D48" t="s">
         <v>75</v>
       </c>
-      <c r="C48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" t="s">
-        <v>77</v>
-      </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>18</v>
       </c>
       <c r="B49" t="s">
+        <v>357</v>
+      </c>
+      <c r="C49" t="s">
+        <v>358</v>
+      </c>
+      <c r="D49" t="s">
         <v>75</v>
       </c>
-      <c r="C49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" t="s">
-        <v>77</v>
-      </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -6325,11 +6154,8 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -6348,27 +6174,24 @@
       <c r="F51">
         <v>1</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>20</v>
       </c>
       <c r="B53" t="s">
+        <v>359</v>
+      </c>
+      <c r="C53" t="s">
+        <v>358</v>
+      </c>
+      <c r="D53" t="s">
         <v>78</v>
-      </c>
-      <c r="C53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" t="s">
-        <v>80</v>
       </c>
       <c r="E53">
         <v>7</v>
@@ -6376,45 +6199,39 @@
       <c r="F53">
         <v>2</v>
       </c>
-      <c r="G53">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="C54" t="s">
         <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -6422,50 +6239,44 @@
       <c r="F55">
         <v>1</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -6473,45 +6284,39 @@
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59">
-        <v>2</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -6519,22 +6324,19 @@
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -6542,27 +6344,24 @@
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E63">
         <v>4</v>
@@ -6570,22 +6369,19 @@
       <c r="F63">
         <v>1</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>377</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="D64" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -6593,22 +6389,19 @@
       <c r="F64">
         <v>1</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -6616,22 +6409,19 @@
       <c r="F65">
         <v>1</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>378</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -6639,50 +6429,44 @@
       <c r="F66">
         <v>1</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>360</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E69">
         <v>5</v>
@@ -6690,73 +6474,64 @@
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" t="s">
         <v>110</v>
       </c>
-      <c r="D70" t="s">
-        <v>77</v>
-      </c>
       <c r="E70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70">
         <v>4</v>
       </c>
-      <c r="G70">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -6764,22 +6539,19 @@
       <c r="F73">
         <v>1</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>381</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -6787,45 +6559,39 @@
       <c r="F74">
         <v>1</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>360</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E75">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>54</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>382</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="D76" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -6833,45 +6599,39 @@
       <c r="F76">
         <v>1</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>360</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E77">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>55</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="E78">
         <v>7</v>
@@ -6879,27 +6639,24 @@
       <c r="F78">
         <v>1</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -6907,45 +6664,39 @@
       <c r="F80">
         <v>1</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="C81" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="D81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
       <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>381</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="D82" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -6953,22 +6704,19 @@
       <c r="F82">
         <v>1</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>383</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="D83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -6976,27 +6724,24 @@
       <c r="F83">
         <v>1</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="C85" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -7004,22 +6749,19 @@
       <c r="F85">
         <v>1</v>
       </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D86" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -7027,22 +6769,19 @@
       <c r="F86">
         <v>1</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D87" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -7050,22 +6789,19 @@
       <c r="F87">
         <v>1</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>384</v>
       </c>
       <c r="C88" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="D88" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -7073,22 +6809,19 @@
       <c r="F88">
         <v>2</v>
       </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>385</v>
       </c>
       <c r="C89" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="D89" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -7096,22 +6829,19 @@
       <c r="F89">
         <v>1</v>
       </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>61</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="C90" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E90">
         <v>5</v>
@@ -7119,67 +6849,58 @@
       <c r="F90">
         <v>1</v>
       </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="46">
+    <row r="92" spans="1:6" ht="51">
       <c r="A92" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>18</v>
       </c>
       <c r="B93" t="s">
+        <v>357</v>
+      </c>
+      <c r="C93" t="s">
+        <v>358</v>
+      </c>
+      <c r="D93" t="s">
         <v>75</v>
       </c>
-      <c r="C93" t="s">
-        <v>76</v>
-      </c>
-      <c r="D93" t="s">
-        <v>77</v>
-      </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>18</v>
       </c>
       <c r="B94" t="s">
+        <v>357</v>
+      </c>
+      <c r="C94" t="s">
+        <v>358</v>
+      </c>
+      <c r="D94" t="s">
         <v>75</v>
       </c>
-      <c r="C94" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" t="s">
-        <v>77</v>
-      </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -7198,11 +6919,8 @@
       <c r="F95">
         <v>1</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -7221,27 +6939,24 @@
       <c r="F96">
         <v>1</v>
       </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>20</v>
       </c>
       <c r="B98" t="s">
+        <v>359</v>
+      </c>
+      <c r="C98" t="s">
+        <v>358</v>
+      </c>
+      <c r="D98" t="s">
         <v>78</v>
-      </c>
-      <c r="C98" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98" t="s">
-        <v>80</v>
       </c>
       <c r="E98">
         <v>7</v>
@@ -7249,45 +6964,39 @@
       <c r="F98">
         <v>2</v>
       </c>
-      <c r="G98">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="C99" t="s">
         <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
       <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="C100" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="D100" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -7295,22 +7004,19 @@
       <c r="F100">
         <v>1</v>
       </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>162</v>
+        <v>386</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D101" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E101">
         <v>5</v>
@@ -7318,27 +7024,24 @@
       <c r="F101">
         <v>1</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="C103" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D103" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -7346,45 +7049,39 @@
       <c r="F103">
         <v>1</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="C104" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="D104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E104">
         <v>2</v>
       </c>
       <c r="F104">
-        <v>2</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>27</v>
       </c>
       <c r="B105" t="s">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="C105" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D105" t="s">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -7392,22 +7089,19 @@
       <c r="F105">
         <v>1</v>
       </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>28</v>
       </c>
       <c r="B106" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D106" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -7415,27 +7109,24 @@
       <c r="F106">
         <v>1</v>
       </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D108" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -7443,22 +7134,19 @@
       <c r="F108">
         <v>1</v>
       </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C109" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D109" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E109">
         <v>4</v>
@@ -7466,22 +7154,19 @@
       <c r="F109">
         <v>1</v>
       </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C110" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D110" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -7489,22 +7174,19 @@
       <c r="F110">
         <v>1</v>
       </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>162</v>
+        <v>386</v>
       </c>
       <c r="C111" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D111" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E111">
         <v>5</v>
@@ -7512,27 +7194,24 @@
       <c r="F111">
         <v>1</v>
       </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C113" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D113" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -7540,22 +7219,19 @@
       <c r="F113">
         <v>1</v>
       </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D114" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -7563,22 +7239,19 @@
       <c r="F114">
         <v>1</v>
       </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>29</v>
       </c>
       <c r="B115" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C115" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D115" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -7586,22 +7259,19 @@
       <c r="F115">
         <v>1</v>
       </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>63</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>386</v>
       </c>
       <c r="C116" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D116" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E116">
         <v>5</v>
@@ -7609,27 +7279,24 @@
       <c r="F116">
         <v>1</v>
       </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>64</v>
       </c>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D118" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E118">
         <v>5</v>
@@ -7637,22 +7304,19 @@
       <c r="F118">
         <v>2</v>
       </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>65</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>387</v>
       </c>
       <c r="C119" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D119" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="E119">
         <v>7</v>
@@ -7660,73 +7324,64 @@
       <c r="F119">
         <v>3</v>
       </c>
-      <c r="G119">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>66</v>
       </c>
       <c r="B120" t="s">
-        <v>169</v>
+        <v>362</v>
       </c>
       <c r="C120" t="s">
-        <v>106</v>
+        <v>363</v>
       </c>
       <c r="D120" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120">
-        <v>3</v>
-      </c>
-      <c r="G120">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>67</v>
       </c>
       <c r="B121" t="s">
-        <v>173</v>
+        <v>388</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D121" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>25</v>
       </c>
       <c r="B123" t="s">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="C123" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D123" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -7734,45 +7389,39 @@
       <c r="F123">
         <v>1</v>
       </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>26</v>
       </c>
       <c r="B124" t="s">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="C124" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="D124" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E124">
         <v>2</v>
       </c>
       <c r="F124">
-        <v>2</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>56</v>
       </c>
       <c r="B125" t="s">
-        <v>154</v>
+        <v>381</v>
       </c>
       <c r="C125" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="D125" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -7780,22 +7429,19 @@
       <c r="F125">
         <v>1</v>
       </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>57</v>
       </c>
       <c r="B126" t="s">
-        <v>155</v>
+        <v>383</v>
       </c>
       <c r="C126" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="D126" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -7803,27 +7449,24 @@
       <c r="F126">
         <v>1</v>
       </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>60</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>385</v>
       </c>
       <c r="C128" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="D128" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -7831,22 +7474,19 @@
       <c r="F128">
         <v>1</v>
       </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>59</v>
       </c>
       <c r="B129" t="s">
-        <v>157</v>
+        <v>384</v>
       </c>
       <c r="C129" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="D129" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7854,22 +7494,19 @@
       <c r="F129">
         <v>2</v>
       </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>165</v>
+        <v>387</v>
       </c>
       <c r="C130" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D130" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -7877,22 +7514,19 @@
       <c r="F130">
         <v>3</v>
       </c>
-      <c r="G130">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>27</v>
       </c>
       <c r="B131" t="s">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="C131" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D131" t="s">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7900,22 +7534,19 @@
       <c r="F131">
         <v>1</v>
       </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>28</v>
       </c>
       <c r="B132" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C132" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D132" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7923,22 +7554,19 @@
       <c r="F132">
         <v>1</v>
       </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>22</v>
       </c>
       <c r="B133" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="C133" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="D133" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7946,22 +7574,19 @@
       <c r="F133">
         <v>1</v>
       </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>68</v>
       </c>
       <c r="B134" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="C134" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D134" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7969,16 +7594,13 @@
       <c r="F134">
         <v>1</v>
       </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="46">
+    <row r="136" spans="1:6" ht="51">
       <c r="A136" s="1" t="s">
         <v>17</v>
       </c>
@@ -7991,1205 +7613,876 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65517219-D4F6-9D4F-A0C6-1DFFFA34E0EE}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>12</v>
       </c>
       <c r="B1">
-        <v>8982</v>
+        <v>15322</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1">
-        <v>7</v>
-      </c>
-      <c r="H1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>359</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7186</v>
+        <v>24067</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2">
+        <v>359</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>10260</v>
+        <v>10747</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
+        <v>360</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>10431</v>
+        <v>13097</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
+        <v>361</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:5">
       <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>884</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>14852</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>884</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>14852</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>35</v>
       </c>
-      <c r="B5">
-        <v>7273</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B9">
+        <v>7137</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+      <c r="D9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>35</v>
       </c>
-      <c r="B6">
-        <v>7237</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B10">
+        <v>18913</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>12868</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>18537</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>927</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>374</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>15221</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>7470</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>7701</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>18964</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>19069</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>15322</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>359</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>24067</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>359</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>10747</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>13097</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>361</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>68</v>
+      </c>
+      <c r="B23">
+        <v>10256</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>360</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>68</v>
+      </c>
+      <c r="B24">
+        <v>15057</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>70</v>
+      </c>
+      <c r="B25">
+        <v>25349</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>8638</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>70</v>
+      </c>
+      <c r="B27">
+        <v>13833</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>379</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>21332</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>380</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>71</v>
+      </c>
+      <c r="B29">
+        <v>5623</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>71</v>
+      </c>
+      <c r="B30">
+        <v>5857</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>88</v>
+      </c>
+      <c r="B31">
+        <v>5111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>384</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>88</v>
+      </c>
+      <c r="B32">
+        <v>17942</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>384</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>98</v>
+      </c>
+      <c r="B33">
+        <v>15322</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>359</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>98</v>
+      </c>
+      <c r="B34">
+        <v>24067</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>359</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>99</v>
+      </c>
+      <c r="B35">
+        <v>10747</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>360</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>99</v>
+      </c>
+      <c r="B36">
+        <v>13097</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>361</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
         <v>118</v>
       </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="B37">
+        <v>6643</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>7335</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>118</v>
+      </c>
+      <c r="B38">
+        <v>18583</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
         <v>119</v>
       </c>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
+      <c r="B39">
+        <v>18417</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
+        <v>387</v>
+      </c>
+      <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>39</v>
-      </c>
-      <c r="B8">
-        <v>6300</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>119</v>
+      </c>
+      <c r="B40">
+        <v>20717</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>10596</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>119</v>
+      </c>
+      <c r="B41">
+        <v>22977</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>39</v>
-      </c>
-      <c r="B10">
-        <v>10599</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>120</v>
+      </c>
+      <c r="B42">
+        <v>2195</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
+        <v>362</v>
+      </c>
+      <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <v>3837</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>120</v>
+      </c>
+      <c r="B43">
+        <v>13134</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E43">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>3917</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>121</v>
+      </c>
+      <c r="B44">
+        <v>9077</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" t="s">
+        <v>388</v>
+      </c>
+      <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>45</v>
-      </c>
-      <c r="B13">
-        <v>10658</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>121</v>
+      </c>
+      <c r="B45">
+        <v>9319</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" t="s">
+        <v>388</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>121</v>
+      </c>
+      <c r="B46">
+        <v>14494</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>388</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
         <v>129</v>
       </c>
-      <c r="E13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="B47">
+        <v>5111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>384</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>129</v>
+      </c>
+      <c r="B48">
+        <v>17942</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>384</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
         <v>130</v>
       </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
+      <c r="B49">
+        <v>18417</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>387</v>
+      </c>
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>8982</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>53</v>
-      </c>
-      <c r="B15">
-        <v>7186</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>130</v>
+      </c>
+      <c r="B50">
+        <v>20717</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>56</v>
-      </c>
-      <c r="B16">
-        <v>6176</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>56</v>
-      </c>
-      <c r="B17">
-        <v>6197</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>59</v>
-      </c>
-      <c r="B18">
-        <v>10260</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>59</v>
-      </c>
-      <c r="B19">
-        <v>10431</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>70</v>
-      </c>
-      <c r="B20">
-        <v>10212</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>70</v>
-      </c>
-      <c r="B21">
-        <v>4880</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>70</v>
-      </c>
-      <c r="B22">
-        <v>8804</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>70</v>
-      </c>
-      <c r="B23">
-        <v>305</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>81</v>
-      </c>
-      <c r="B24">
-        <v>10260</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>81</v>
-      </c>
-      <c r="B25">
-        <v>10431</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25">
-        <v>7</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>88</v>
-      </c>
-      <c r="B26">
-        <v>710</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>88</v>
-      </c>
-      <c r="B27">
-        <v>891</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>98</v>
-      </c>
-      <c r="B28">
-        <v>8982</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28">
-        <v>7</v>
-      </c>
-      <c r="H28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>98</v>
-      </c>
-      <c r="B29">
-        <v>7186</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29">
-        <v>8</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>104</v>
-      </c>
-      <c r="B30">
-        <v>10260</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>104</v>
-      </c>
-      <c r="B31">
-        <v>10431</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31">
-        <v>7</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>118</v>
-      </c>
-      <c r="B32">
-        <v>6443</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>118</v>
-      </c>
-      <c r="B33">
-        <v>6495</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>119</v>
-      </c>
-      <c r="B34">
-        <v>10585</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>130</v>
+      </c>
+      <c r="B51">
+        <v>22977</v>
+      </c>
+      <c r="C51" t="s">
         <v>65</v>
       </c>
-      <c r="D34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G34">
-        <v>7</v>
-      </c>
-      <c r="H34">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>119</v>
-      </c>
-      <c r="B35">
-        <v>2962</v>
-      </c>
-      <c r="C35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="D51" t="s">
         <v>69</v>
       </c>
-      <c r="E35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35">
-        <v>8</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>119</v>
-      </c>
-      <c r="B36">
-        <v>7986</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" t="s">
-        <v>168</v>
-      </c>
-      <c r="G36">
-        <v>8</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>120</v>
-      </c>
-      <c r="B37">
-        <v>9218</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <v>120</v>
-      </c>
-      <c r="B38">
-        <v>4715</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" t="s">
-        <v>170</v>
-      </c>
-      <c r="E38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>120</v>
-      </c>
-      <c r="B39">
-        <v>10471</v>
-      </c>
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" t="s">
-        <v>171</v>
-      </c>
-      <c r="E39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>124</v>
-      </c>
-      <c r="B40">
-        <v>10260</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>124</v>
-      </c>
-      <c r="B41">
-        <v>10431</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41">
-        <v>7</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
-        <v>129</v>
-      </c>
-      <c r="B42">
-        <v>710</v>
-      </c>
-      <c r="C42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" t="s">
-        <v>158</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
-        <v>129</v>
-      </c>
-      <c r="B43">
-        <v>891</v>
-      </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" t="s">
-        <v>159</v>
-      </c>
-      <c r="E43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" t="s">
-        <v>158</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>130</v>
-      </c>
-      <c r="B44">
-        <v>10585</v>
-      </c>
-      <c r="C44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" t="s">
-        <v>166</v>
-      </c>
-      <c r="G44">
-        <v>7</v>
-      </c>
-      <c r="H44">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>130</v>
-      </c>
-      <c r="B45">
-        <v>2962</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45">
-        <v>8</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>130</v>
-      </c>
-      <c r="B46">
-        <v>7986</v>
-      </c>
-      <c r="C46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" t="s">
-        <v>167</v>
-      </c>
-      <c r="E46" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>168</v>
-      </c>
-      <c r="G46">
-        <v>8</v>
-      </c>
-      <c r="H46">
+      <c r="E51">
         <v>0</v>
       </c>
     </row>
@@ -9205,7 +8498,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9218,12 +8511,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
